--- a/股票信息.xlsx
+++ b/股票信息.xlsx
@@ -390,9 +390,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2015,7 +2015,40 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>8740.71</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>859712.2699999999</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1014512.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>154800.67000000004</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18.01%
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/股票信息.xlsx
+++ b/股票信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2048,6 +2048,39 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>15186.61</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>874898.8799999999</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1014512.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>139614.06000000006</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15.96%
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/股票信息.xlsx
+++ b/股票信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2081,6 +2081,39 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>8273.16</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>883172.0399999999</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1014512.94</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>131340.90000000002</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.87%
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/股票信息.xlsx
+++ b/股票信息.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,6 +2114,39 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3026.9</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>886198.94</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1014512.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>128314.0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.48%
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
